--- a/BOM-CPL/railroad-keyboard-pcb-only-bom.xlsx
+++ b/BOM-CPL/railroad-keyboard-pcb-only-bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OtherDev\railroad-keyboard\BOM-CPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1692DB-1997-45F4-9247-A1E548D089B0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46F4359-37CF-4CD3-A0EB-278CCC0C3B19}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="8190" xr2:uid="{07594EBF-AC34-44F4-98D2-2B9826C511A2}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
